--- a/forms/item/item_download_xls.xlsx
+++ b/forms/item/item_download_xls.xlsx
@@ -20,7 +20,7 @@
     <t>ITEM MAINTENANCE</t>
   </si>
   <si>
-    <t>(DOWNLOAD DATE : 2020-11-16 09:01:16)</t>
+    <t>(DOWNLOAD DATE : 2020-11-16 07:54:59)</t>
   </si>
   <si>
     <t>ITEM_NO</t>
